--- a/data/hotels_by_city/Houston/Houston_shard_77.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_77.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d1212487-Reviews-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-La-Porte.h2233233.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,645 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r495927636-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>1212487</t>
+  </si>
+  <si>
+    <t>495927636</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Good location for Family Trips</t>
+  </si>
+  <si>
+    <t>Good location off the freeway. Good access to nearby restaurants and easy to get to NASA and Kemah Boardwalk attractions.Not advisable for business meetings and business personnel.Overall good for families with kids.Need some housekeeping and updates to achieve higher satisfaction rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CandlewoodSuitesLa, Webmaster at Candlewood Suites La Porte, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Good location off the freeway. Good access to nearby restaurants and easy to get to NASA and Kemah Boardwalk attractions.Not advisable for business meetings and business personnel.Overall good for families with kids.Need some housekeeping and updates to achieve higher satisfaction rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r486235549-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>486235549</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>30 days in work</t>
+  </si>
+  <si>
+    <t>A simple and pleasant hotel. Cheap because it does not have breakfast infrastructure. The rooms have a fully equipped kitchen with everything needed for coffee, lunch and dinner. The staff are very friendly and helpful.They provide coffee bags to make in the room. If you wish you can take it at the reception same time. They have a small convenience store. Washing machines and dryers and a gym. All included in the rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>CandlewoodSuitesLa, webmaster at Candlewood Suites La Porte, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>A simple and pleasant hotel. Cheap because it does not have breakfast infrastructure. The rooms have a fully equipped kitchen with everything needed for coffee, lunch and dinner. The staff are very friendly and helpful.They provide coffee bags to make in the room. If you wish you can take it at the reception same time. They have a small convenience store. Washing machines and dryers and a gym. All included in the rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r474650879-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>474650879</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>New, but determined</t>
+  </si>
+  <si>
+    <t>I work for an IHG property as a front desk agent, so I understand that everyone has a first week. The guest service rep that was checking me in (night audit) was new and we were having some minor check in issues, but she remained kind and calm. It didn't bother me that it took a little longer than expected because she mentioned my status within seconds of me first arriving.I wish I could list her by name, but it was a very unique name and she was very presentable.As far as the property, it was comfortable and quiet. Fully stocked kitchenette will be helpful the next longer trip I take to visit my family!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CandlewoodSuitesLa, Webmaster at Candlewood Suites La Porte, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>I work for an IHG property as a front desk agent, so I understand that everyone has a first week. The guest service rep that was checking me in (night audit) was new and we were having some minor check in issues, but she remained kind and calm. It didn't bother me that it took a little longer than expected because she mentioned my status within seconds of me first arriving.I wish I could list her by name, but it was a very unique name and she was very presentable.As far as the property, it was comfortable and quiet. Fully stocked kitchenette will be helpful the next longer trip I take to visit my family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r438414568-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>438414568</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Candlewood Suites.  The morning desk girl was rude and constantly talked back to a member of the management staff.  I felt this personal episode should not have been displayed in front of guests.  I was very shocked that the man would continue to put up with (her name began with a J) her arrogant and mean attitude.  She is not an asset to this hotel.  Perhaps both of them need to go.  Where are the owners?I also want to point out that although the hotel is dog friendly, I am opposed to dogs walking through the lobby.  This is unsafe to other guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites La Porte, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Candlewood Suites.  The morning desk girl was rude and constantly talked back to a member of the management staff.  I felt this personal episode should not have been displayed in front of guests.  I was very shocked that the man would continue to put up with (her name began with a J) her arrogant and mean attitude.  She is not an asset to this hotel.  Perhaps both of them need to go.  Where are the owners?I also want to point out that although the hotel is dog friendly, I am opposed to dogs walking through the lobby.  This is unsafe to other guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r387828057-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>387828057</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>One night</t>
+  </si>
+  <si>
+    <t>My husband and I only stayed one night. Front desk staff was pleasant. Lobby was clean and comfortable.  Suite was clean and if we had to stay for a while it would have been great. Used laundry facilities which were free. Workout room was clean and adequate.  Convenient location to grocery store and restaurants.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites La Porte, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I only stayed one night. Front desk staff was pleasant. Lobby was clean and comfortable.  Suite was clean and if we had to stay for a while it would have been great. Used laundry facilities which were free. Workout room was clean and adequate.  Convenient location to grocery store and restaurants.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r360961543-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>360961543</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the best </t>
+  </si>
+  <si>
+    <t>I stayed here 2 night in March due to my water heater getting fixed. I only stayed here because the rate was cheap being an employee at another hotel. I liked that I was able to get an early check in. That helped a lot. The room was ok the toilet worked when it wanted to and made noises all night. I noticed the employees like to hang out a lot rather then work. When I walked in the housekeepers when standing around the desk laughing and having a good time later I noticed the same front desk lady staying talking to guys laughing having a good time that's cool probably a slow day understandable. Easy money but what got me was when I was checking out nobody was at the desk when I walked out back I see the front desk and housekeepers all sitting out side smoking and drinking wine..really no wonder why the rooms don't get clean properly. This property needs to step those game up.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CandlewoodSuitesLa, Webmaster at Candlewood Suites La Porte, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here 2 night in March due to my water heater getting fixed. I only stayed here because the rate was cheap being an employee at another hotel. I liked that I was able to get an early check in. That helped a lot. The room was ok the toilet worked when it wanted to and made noises all night. I noticed the employees like to hang out a lot rather then work. When I walked in the housekeepers when standing around the desk laughing and having a good time later I noticed the same front desk lady staying talking to guys laughing having a good time that's cool probably a slow day understandable. Easy money but what got me was when I was checking out nobody was at the desk when I walked out back I see the front desk and housekeepers all sitting out side smoking and drinking wine..really no wonder why the rooms don't get clean properly. This property needs to step those game up.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r278893183-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>278893183</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Stay away.</t>
+  </si>
+  <si>
+    <t>First room that was attempted smelt like a wet basement. There were 5 boxes of Arm &amp; Hammer and a Damp X in the room and it was still unbearable.  Second room was a wreck. Still a damp musty smell and dirty. Checked out the next morning. Noticed there is no room service so if you want clean towels you must exchange your dirty ones at the front desk. The folks hanging in the lobby look like I just entered a halfway house. Pathetic IHG hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Candlewood77571, General Manager at Candlewood Suites La Porte, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>First room that was attempted smelt like a wet basement. There were 5 boxes of Arm &amp; Hammer and a Damp X in the room and it was still unbearable.  Second room was a wreck. Still a damp musty smell and dirty. Checked out the next morning. Noticed there is no room service so if you want clean towels you must exchange your dirty ones at the front desk. The folks hanging in the lobby look like I just entered a halfway house. Pathetic IHG hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r269337816-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>269337816</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Not the best.</t>
+  </si>
+  <si>
+    <t>Grounds and outside areas were not very clean.  Guests using the grilling area were nasty and loud.  Lots of construction workers stay here and drag mud into the hotel on their shoes.  They also smoke in non smoking rooms and throw all their pizza boxes and beer cans into hallway.  Our floor reeked of cigarette smoke every night.  Room keys did not work very well-had to have them reprogramed daily. Free popcorn in microwave disappeared after housekeeping cleaned room. On the positive side the towels and sheets were very nice and the air conditioning worked great.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Candlewood77571, General Manager at Candlewood Suites La Porte, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Grounds and outside areas were not very clean.  Guests using the grilling area were nasty and loud.  Lots of construction workers stay here and drag mud into the hotel on their shoes.  They also smoke in non smoking rooms and throw all their pizza boxes and beer cans into hallway.  Our floor reeked of cigarette smoke every night.  Room keys did not work very well-had to have them reprogramed daily. Free popcorn in microwave disappeared after housekeeping cleaned room. On the positive side the towels and sheets were very nice and the air conditioning worked great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r254686611-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>254686611</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Pre Cruise Stay</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this facility prior to a cruise.  We were well pleased with both the staff and cleanliness.  The location was close to the port.  There was shuttle service to the port for a small fee.  The shuttle was on time and very convenient. We found restaurants  to be nearby within walking distance.  Over all a pleasant experience that enhanced our cruise.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this facility prior to a cruise.  We were well pleased with both the staff and cleanliness.  The location was close to the port.  There was shuttle service to the port for a small fee.  The shuttle was on time and very convenient. We found restaurants  to be nearby within walking distance.  Over all a pleasant experience that enhanced our cruise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r239989723-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>239989723</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Clean and looks new.</t>
+  </si>
+  <si>
+    <t>Very pleased with our stay.  Rooms were very clean, freshly updated and very spacious/comfortable.  Had a full kitchen (which we didn't need but was nice to see). Located across the street from bank, grocery, fast-food, and fuel stops.  Easy access to main roads. Very short drive to Cruise terminal. Wi-fi in room worked well. Well lite parking lot. If in area, will stay again.  Note:  There is absolutely no breakfast served of any kind.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r229417586-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>229417586</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>This place stinks, literally</t>
+  </si>
+  <si>
+    <t>Room stunk, literally.  Hotel stunk, literally.  Hotel employees went around hotel spraying for the smell, but it did not work.  Came to our room and sprayed it as well - did not work.  If you have allergy or breathing problems ?????
+Did not know when booking that getting clean towels and sheets daily was an additional charge.  Added to this, there was no breakfast.  Would not have booked this hotel if we had known this.
+Kicked out of room on 4 day stay because owners got greedy and wanted the room we were in.  Had notified front desk upon arrival that we had two reservations - one paid by work and one paid personally, but we wanted to stay in just one room, front desk said no problem we would stay in same room all 4 nights.  Then, 15 minutes before checkout time on the 2nd day, front desk called room and stated we either had to move or pay more - we moved, to a Hampton Inn and should have stayed there in the first place.  My wife asked me why we stayed even one night in that stinky hotel and I did not have a good answer for her.  We were told we were in a "premium" room - broken chair, scotch tape holding linoleum on table top, etc. - makes you wonder what a "standard" room is like.  
+Competition will put this hotel in its proper place...Room stunk, literally.  Hotel stunk, literally.  Hotel employees went around hotel spraying for the smell, but it did not work.  Came to our room and sprayed it as well - did not work.  If you have allergy or breathing problems ?????Did not know when booking that getting clean towels and sheets daily was an additional charge.  Added to this, there was no breakfast.  Would not have booked this hotel if we had known this.Kicked out of room on 4 day stay because owners got greedy and wanted the room we were in.  Had notified front desk upon arrival that we had two reservations - one paid by work and one paid personally, but we wanted to stay in just one room, front desk said no problem we would stay in same room all 4 nights.  Then, 15 minutes before checkout time on the 2nd day, front desk called room and stated we either had to move or pay more - we moved, to a Hampton Inn and should have stayed there in the first place.  My wife asked me why we stayed even one night in that stinky hotel and I did not have a good answer for her.  We were told we were in a "premium" room - broken chair, scotch tape holding linoleum on table top, etc. - makes you wonder what a "standard" room is like.  Competition will put this hotel in its proper place – out of business.May never visit an IHG property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Candlewood77571, General Manager at Candlewood Suites La Porte, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Room stunk, literally.  Hotel stunk, literally.  Hotel employees went around hotel spraying for the smell, but it did not work.  Came to our room and sprayed it as well - did not work.  If you have allergy or breathing problems ?????
+Did not know when booking that getting clean towels and sheets daily was an additional charge.  Added to this, there was no breakfast.  Would not have booked this hotel if we had known this.
+Kicked out of room on 4 day stay because owners got greedy and wanted the room we were in.  Had notified front desk upon arrival that we had two reservations - one paid by work and one paid personally, but we wanted to stay in just one room, front desk said no problem we would stay in same room all 4 nights.  Then, 15 minutes before checkout time on the 2nd day, front desk called room and stated we either had to move or pay more - we moved, to a Hampton Inn and should have stayed there in the first place.  My wife asked me why we stayed even one night in that stinky hotel and I did not have a good answer for her.  We were told we were in a "premium" room - broken chair, scotch tape holding linoleum on table top, etc. - makes you wonder what a "standard" room is like.  
+Competition will put this hotel in its proper place...Room stunk, literally.  Hotel stunk, literally.  Hotel employees went around hotel spraying for the smell, but it did not work.  Came to our room and sprayed it as well - did not work.  If you have allergy or breathing problems ?????Did not know when booking that getting clean towels and sheets daily was an additional charge.  Added to this, there was no breakfast.  Would not have booked this hotel if we had known this.Kicked out of room on 4 day stay because owners got greedy and wanted the room we were in.  Had notified front desk upon arrival that we had two reservations - one paid by work and one paid personally, but we wanted to stay in just one room, front desk said no problem we would stay in same room all 4 nights.  Then, 15 minutes before checkout time on the 2nd day, front desk called room and stated we either had to move or pay more - we moved, to a Hampton Inn and should have stayed there in the first place.  My wife asked me why we stayed even one night in that stinky hotel and I did not have a good answer for her.  We were told we were in a "premium" room - broken chair, scotch tape holding linoleum on table top, etc. - makes you wonder what a "standard" room is like.  Competition will put this hotel in its proper place – out of business.May never visit an IHG property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r226314922-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>226314922</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Clean, no extras.</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood in La Porte for a family reunion. It was clean, and the suites were a good size for my son and I.  But for the price (which was no different than similar hotels in the area that other family members stayed it) it was lacking in amenities. No breakfast, no pool. Housekeeping on request.I assume that the hotel's primary customers are business people who are in and out and plan to cook in the kitchenette, and it's a fine hotel for that since La Porte doesn't have anything in the way of attractions or fine dining.  So I would say if your goal is to stay here for the price, and then make trips into Houston (only 20 minutes away), and cook your own meals, this is great. Not really so good for families since there's nothing for the kids to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood in La Porte for a family reunion. It was clean, and the suites were a good size for my son and I.  But for the price (which was no different than similar hotels in the area that other family members stayed it) it was lacking in amenities. No breakfast, no pool. Housekeeping on request.I assume that the hotel's primary customers are business people who are in and out and plan to cook in the kitchenette, and it's a fine hotel for that since La Porte doesn't have anything in the way of attractions or fine dining.  So I would say if your goal is to stay here for the price, and then make trips into Houston (only 20 minutes away), and cook your own meals, this is great. Not really so good for families since there's nothing for the kids to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r204170139-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>204170139</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Better Than Sleeping in your Car!</t>
+  </si>
+  <si>
+    <t>If you have to stay here I hope it is for business and not pleasure. This is basically just a place to stay that is not in the gutter. The sheets were like almost a flannel sheet, too warm for May. Also, if you are going to stay there try to get a room not on the first floor, the headlights from cars and light posts in the parking lot make for a difficult nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Candlewood77571, Manager at Candlewood Suites La Porte, responded to this reviewResponded May 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2014</t>
+  </si>
+  <si>
+    <t>If you have to stay here I hope it is for business and not pleasure. This is basically just a place to stay that is not in the gutter. The sheets were like almost a flannel sheet, too warm for May. Also, if you are going to stay there try to get a room not on the first floor, the headlights from cars and light posts in the parking lot make for a difficult nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r203282179-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>203282179</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Rated Number 1 in La Porte?  It was ok.</t>
+  </si>
+  <si>
+    <t>We arrived in town and easily found the hotel.  I asked for another room as the one assigned to us was a cloud of Carpet Fresh and it was difficult to breath.   We were given a different room and it had a much better air quality.The room was clean.  There were lots of TV channels.  The bed was a little too firm for my taste but was acceptable.The reason I say the property is average is that almost everything was showing substantial wear: the finish that surrounded the tub could have used replacing - both bedspreads definitely needed to be replaced.  The carpet was stained and worn.Breakfast was not included in the price.There was nothing so damaged as it made the room unacceptable, but it was definitely shabby.  Would I stay there again? Probably not. I would probably try one of the other competitors in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We arrived in town and easily found the hotel.  I asked for another room as the one assigned to us was a cloud of Carpet Fresh and it was difficult to breath.   We were given a different room and it had a much better air quality.The room was clean.  There were lots of TV channels.  The bed was a little too firm for my taste but was acceptable.The reason I say the property is average is that almost everything was showing substantial wear: the finish that surrounded the tub could have used replacing - both bedspreads definitely needed to be replaced.  The carpet was stained and worn.Breakfast was not included in the price.There was nothing so damaged as it made the room unacceptable, but it was definitely shabby.  Would I stay there again? Probably not. I would probably try one of the other competitors in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r197184021-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197184021</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>DISAPPOINTED</t>
+  </si>
+  <si>
+    <t>I rented a room for three nights for my daughter to use while she was taking the 3 day State Bar Exam in nearby Pasadena, Texas.  The nightly rate of $97.75 seemed reasonable and the location was close to where the Bar Exams were being administered.  On the last day, my daughter explained her situation and asked the front desk if she could leave her belongings in the room for the day while she completed another grueling day of tests - this was approved.  When she returned, the afternoon crew told her they were charging her for another day (actually charging her dad!).I called the property and spoke with "Donald" (apparently no last name) who explained that they couldn't clean the room with her belongings in the room so they added the extra day.  Thanks for the help and consideration Candlewood - it's not like you were totally booked for the night in question.  Great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites La Porte, responded to this reviewResponded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2014</t>
+  </si>
+  <si>
+    <t>I rented a room for three nights for my daughter to use while she was taking the 3 day State Bar Exam in nearby Pasadena, Texas.  The nightly rate of $97.75 seemed reasonable and the location was close to where the Bar Exams were being administered.  On the last day, my daughter explained her situation and asked the front desk if she could leave her belongings in the room for the day while she completed another grueling day of tests - this was approved.  When she returned, the afternoon crew told her they were charging her for another day (actually charging her dad!).I called the property and spoke with "Donald" (apparently no last name) who explained that they couldn't clean the room with her belongings in the room so they added the extra day.  Thanks for the help and consideration Candlewood - it's not like you were totally booked for the night in question.  Great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r190225464-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>190225464</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Great Value great Service</t>
+  </si>
+  <si>
+    <t>Everything was good from location to cleanliness to service to price. Pillows were BAD  !! Small detail but so important when you need sleep ! Justin at front very helpful but never found extra pillows... Recommend it thoroughly just bring a pillow...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r188516855-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>188516855</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel before or after a cruise with shuttle and free parking!!</t>
+  </si>
+  <si>
+    <t>We went out of Bayport Terminal on a Princess Cruise last week and were so impressed by the value, cleanliness and professionalism at the Candlewood Suites, La Porte, TX.  I shopped around for hotels as I always do before our trips, (we are seasoned cruisers that have sailed on different lines to many different destinations) I was pleasantly surprised to find this affordable option after others were twice the price.  The very affordable rate for one night including the shuttle to and from the Bayport Cruise Terminal with all of our luggage was under $100 total and that included free parking at the hotel for the duration of the cruise.  Really a value, if you consider that it is $80 just to park your car at the terminal for the cruise. The shuttle was very timely which was great, since  it was storming the day that we disembarked the ship.  There is not a breakfast offered but there a coffee maker, microwave with popcorn, full size refrigerator, cooktop, etc. in each room.  We opted to just bring in muffins for the morning, since we knew we would be eating as soon as we boarded the ship. There is also a  Waffle House and Dennys really close by.  There is a movie theater about 2 miles from the hotel as well as many, many dining options.  I can't stress how pleased I was with this extremely clean hotel for the price....We went out of Bayport Terminal on a Princess Cruise last week and were so impressed by the value, cleanliness and professionalism at the Candlewood Suites, La Porte, TX.  I shopped around for hotels as I always do before our trips, (we are seasoned cruisers that have sailed on different lines to many different destinations) I was pleasantly surprised to find this affordable option after others were twice the price.  The very affordable rate for one night including the shuttle to and from the Bayport Cruise Terminal with all of our luggage was under $100 total and that included free parking at the hotel for the duration of the cruise.  Really a value, if you consider that it is $80 just to park your car at the terminal for the cruise. The shuttle was very timely which was great, since  it was storming the day that we disembarked the ship.  There is not a breakfast offered but there a coffee maker, microwave with popcorn, full size refrigerator, cooktop, etc. in each room.  We opted to just bring in muffins for the morning, since we knew we would be eating as soon as we boarded the ship. There is also a  Waffle House and Dennys really close by.  There is a movie theater about 2 miles from the hotel as well as many, many dining options.  I can't stress how pleased I was with this extremely clean hotel for the price.  They will certainly be our hotel for future cruises from Bayport.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We went out of Bayport Terminal on a Princess Cruise last week and were so impressed by the value, cleanliness and professionalism at the Candlewood Suites, La Porte, TX.  I shopped around for hotels as I always do before our trips, (we are seasoned cruisers that have sailed on different lines to many different destinations) I was pleasantly surprised to find this affordable option after others were twice the price.  The very affordable rate for one night including the shuttle to and from the Bayport Cruise Terminal with all of our luggage was under $100 total and that included free parking at the hotel for the duration of the cruise.  Really a value, if you consider that it is $80 just to park your car at the terminal for the cruise. The shuttle was very timely which was great, since  it was storming the day that we disembarked the ship.  There is not a breakfast offered but there a coffee maker, microwave with popcorn, full size refrigerator, cooktop, etc. in each room.  We opted to just bring in muffins for the morning, since we knew we would be eating as soon as we boarded the ship. There is also a  Waffle House and Dennys really close by.  There is a movie theater about 2 miles from the hotel as well as many, many dining options.  I can't stress how pleased I was with this extremely clean hotel for the price....We went out of Bayport Terminal on a Princess Cruise last week and were so impressed by the value, cleanliness and professionalism at the Candlewood Suites, La Porte, TX.  I shopped around for hotels as I always do before our trips, (we are seasoned cruisers that have sailed on different lines to many different destinations) I was pleasantly surprised to find this affordable option after others were twice the price.  The very affordable rate for one night including the shuttle to and from the Bayport Cruise Terminal with all of our luggage was under $100 total and that included free parking at the hotel for the duration of the cruise.  Really a value, if you consider that it is $80 just to park your car at the terminal for the cruise. The shuttle was very timely which was great, since  it was storming the day that we disembarked the ship.  There is not a breakfast offered but there a coffee maker, microwave with popcorn, full size refrigerator, cooktop, etc. in each room.  We opted to just bring in muffins for the morning, since we knew we would be eating as soon as we boarded the ship. There is also a  Waffle House and Dennys really close by.  There is a movie theater about 2 miles from the hotel as well as many, many dining options.  I can't stress how pleased I was with this extremely clean hotel for the price.  They will certainly be our hotel for future cruises from Bayport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r186469215-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>186469215</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Pre-cruise stay was convenient and well-equipped</t>
+  </si>
+  <si>
+    <t>We didn't arrive at the hotel until after midnight, but the desk clerk was prompt and even arranged for an extra room we hadn't originally booked for my mom. The shuttle service to the port was on time dropping us off, and fast picking us up too. Free parking offset the cost of the hotel so we basically stayed for free. The hotel was better equipped than many condos we've stayed in. Overall I think this is an excellent place for a short stay before or after a cruise. There's not much around the immediate vicinity. The kitchen was well equipped with a full size refrigerator, dishwasher, stove top, etc. For families this would be a nice way to save on meals. The hotel was clean and the staff very friendly. Skip the breakfast package and eat at Denny's across the street which has much better food.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>We didn't arrive at the hotel until after midnight, but the desk clerk was prompt and even arranged for an extra room we hadn't originally booked for my mom. The shuttle service to the port was on time dropping us off, and fast picking us up too. Free parking offset the cost of the hotel so we basically stayed for free. The hotel was better equipped than many condos we've stayed in. Overall I think this is an excellent place for a short stay before or after a cruise. There's not much around the immediate vicinity. The kitchen was well equipped with a full size refrigerator, dishwasher, stove top, etc. For families this would be a nice way to save on meals. The hotel was clean and the staff very friendly. Skip the breakfast package and eat at Denny's across the street which has much better food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r176780489-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>176780489</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Great line of Suites, and perfect location</t>
+  </si>
+  <si>
+    <t>I have stayed at a few of the Candlewood Suites. Everyone I have stayed at has been clean, excellent staff and comfortable.  The thing about this one is its surrounding stores; great for a business travel.  Krogers supermarket is across the street.  With the Suites having the kitchen, you can cook what you want. In addition, beer and wine.  Starbucks is located inside. There is also a BK and Subway around the corner. A few Mexican restaurants, bars, and to the left you can find a Valero gas station. **** BONUS: next to (attached) to the gas station is "Mesquite Grill &amp; Taco Factory". Only open 5am-1pm, the have the absolute must get breakfast burrito menu.  With a coffee is around $4.  Alway fresh, made to order, and stuffed. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at a few of the Candlewood Suites. Everyone I have stayed at has been clean, excellent staff and comfortable.  The thing about this one is its surrounding stores; great for a business travel.  Krogers supermarket is across the street.  With the Suites having the kitchen, you can cook what you want. In addition, beer and wine.  Starbucks is located inside. There is also a BK and Subway around the corner. A few Mexican restaurants, bars, and to the left you can find a Valero gas station. **** BONUS: next to (attached) to the gas station is "Mesquite Grill &amp; Taco Factory". Only open 5am-1pm, the have the absolute must get breakfast burrito menu.  With a coffee is around $4.  Alway fresh, made to order, and stuffed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r175629277-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>175629277</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>great without being in galverston</t>
+  </si>
+  <si>
+    <t>We found this hotel by chance..as galverston was sold out.It is nothing flash but clean and tidy and great room rate.Not far from galverston were you will pay twice the price.Worth a look and the hotel has all you need and more but we were there only for the night</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r170490450-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>170490450</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>We wanted something close to Galveston, but far enough away to save some money. When we go on trips we like to spend the money on fun things, not on our sleeping quarters. After all, how often are you in your hotel? We love the location of this hotel, it is close to everything you could ever want to do. Lots of fun stuff to do and see with-in an hours drive of the hotel. The staff was really nice and the bed was comfy! We stayed on the top floor and had a smoke free room, but the hall way had a very strong smoke smell. Thats the only negative comment I have about the hotel. Over all, very nice place for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We wanted something close to Galveston, but far enough away to save some money. When we go on trips we like to spend the money on fun things, not on our sleeping quarters. After all, how often are you in your hotel? We love the location of this hotel, it is close to everything you could ever want to do. Lots of fun stuff to do and see with-in an hours drive of the hotel. The staff was really nice and the bed was comfy! We stayed on the top floor and had a smoke free room, but the hall way had a very strong smoke smell. Thats the only negative comment I have about the hotel. Over all, very nice place for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r156640730-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>156640730</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>True Southern Hospitality</t>
+  </si>
+  <si>
+    <t>The hotel is in a good location if you are visiting the La Porte area. Donald and his staff always make me feel welcome and go above and beyond to take care of me and my team. The meeting room came in handy for my staff meetings, There are plenty of good selection of dining choices with in walking distance.This is a very well managed hotel and you wont regret staying there.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r155291557-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>155291557</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Skip it, you can find better</t>
+  </si>
+  <si>
+    <t>It's in a good location and the price is nice.  But you can do better.  Staff is rude and acts entitled.  Came into my room today while I was gone without notice and made a huge mess.  Apparently they were cleaning the floors, but did you have to use my clean towels to mop up.  Called the front desk and if I wanted clean towels I had to bring down the dirty ones and exchange them.  Very rude and could care less.  Thermostat was broken.  Bath tub was chipped.   Floor was wet and sticky and smelled like wet dog after cleaning.  Will not returnMoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewood77571, General Manager at Candlewood Suites La Porte, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>It's in a good location and the price is nice.  But you can do better.  Staff is rude and acts entitled.  Came into my room today while I was gone without notice and made a huge mess.  Apparently they were cleaning the floors, but did you have to use my clean towels to mop up.  Called the front desk and if I wanted clean towels I had to bring down the dirty ones and exchange them.  Very rude and could care less.  Thermostat was broken.  Bath tub was chipped.   Floor was wet and sticky and smelled like wet dog after cleaning.  Will not returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r154796145-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>154796145</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>It's a budget hotel afterall</t>
+  </si>
+  <si>
+    <t>The door was tilting a bit, the room color looked dirty, the towels were yellow colored instead of white, bed made noises when you move around, elevator extremely slow, some other guests were rather noisy.  Still, the staff were very friendly and for $65/night I've stayed at worse places.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The door was tilting a bit, the room color looked dirty, the towels were yellow colored instead of white, bed made noises when you move around, elevator extremely slow, some other guests were rather noisy.  Still, the staff were very friendly and for $65/night I've stayed at worse places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r136743367-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>136743367</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the candlewood in Laporte. The rooms were comfortable and clean. The property was well kept. I loved the fitness room. It was large and spacious. Located with in walking distance to resturants. Staff was very informative and professional.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r122796901-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>122796901</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Better than I expected</t>
+  </si>
+  <si>
+    <t>We were surprised and pleased to find several amenities: the "store" in the lobby available 24 hours a day (pay on the honor system) was very useful; the free laundry services (several machines) in the same room with the exercise equipment; well equiped kitchenettes, with complimentary popcorn!  In general excellent service, clean, a good night's sleep.What surprised us was the regional(?) manager upbraiding the staff in front of guests.  Reprimanding without cause even!  Such a fool.  It was very uncomfortable for us, especially when he said, nice and loud, "honor systems never work."   Huh?</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r92350087-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>92350087</t>
+  </si>
+  <si>
+    <t>01/09/2011</t>
+  </si>
+  <si>
+    <t>Best Hotel in LaPorte--Hands Down. Won't stay anywhere else but here.</t>
+  </si>
+  <si>
+    <t>The finest extended stay hotel &amp; suites hands down. Brand new property. Mgt &amp; staff have superior customer service skills. Free hot dinner buffet &amp; beer on WED. Laundry is FREE!! DVD players in all rooms. Have an outdoor grill/canopy, and the suites are FULLY equiped!! Pots/pans, elec stove, dishwasher, silverware, plates, cups, etc. Never had to buy anything. Gr8food pantry too. Really cater to the La Porte plant worker crowd &amp; out-of-towners.  Couldn't find ANYTHING wrong w/ this place. A real GEM. Everyone is so darn friendly!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1177,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1209,1846 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>193</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>226</v>
+      </c>
+      <c r="X25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_77.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_77.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r578894791-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>1212487</t>
+  </si>
+  <si>
+    <t>578894791</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>FREE Buffet SUPPER Tue, Wed, Thur nights!</t>
+  </si>
+  <si>
+    <t>I wanted to compliment this hotel for exceptional customer service. I found myself unemployed and homeless at the same time and the manager bent over backward to make my extended stay cost effective. Also please note!  They serve DINNER for FREE on Monday, Tues, and Wednesday evenings starting at 5PM. More than just a hotdog, or hamburger, a pretty good buffet always with a desert, vegetable/salad, free tea/coffee and a main entree. The only reason I didn't go to 5 stars is because the laundry is pretty dirty and needs attention.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r526457108-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>526457108</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Slum of a Hotel</t>
+  </si>
+  <si>
+    <t>By far, this is the worst hotel I have ever experienced.   Fourth floor hall way smells like a "wet" dog.   I had mold growing on the ceiling of my room and when I brought it to management's attention, they painted over it, to cover it up.   The cleaning services is very poor, on numerous occasions I had to remind management to clean my room on the designated day.   Old / used clothes left in the middle of the lobby.   This hotel should not be considered as part of the IHG properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CandlewoodSuitesLa, webmaster at Candlewood Suites La Porte, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>By far, this is the worst hotel I have ever experienced.   Fourth floor hall way smells like a "wet" dog.   I had mold growing on the ceiling of my room and when I brought it to management's attention, they painted over it, to cover it up.   The cleaning services is very poor, on numerous occasions I had to remind management to clean my room on the designated day.   Old / used clothes left in the middle of the lobby.   This hotel should not be considered as part of the IHG properties.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r495927636-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>1212487</t>
-  </si>
-  <si>
     <t>495927636</t>
   </si>
   <si>
@@ -174,9 +225,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>CandlewoodSuitesLa, Webmaster at Candlewood Suites La Porte, responded to this reviewResponded June 28, 2017</t>
   </si>
   <si>
@@ -243,6 +291,51 @@
     <t>I work for an IHG property as a front desk agent, so I understand that everyone has a first week. The guest service rep that was checking me in (night audit) was new and we were having some minor check in issues, but she remained kind and calm. It didn't bother me that it took a little longer than expected because she mentioned my status within seconds of me first arriving.I wish I could list her by name, but it was a very unique name and she was very presentable.As far as the property, it was comfortable and quiet. Fully stocked kitchenette will be helpful the next longer trip I take to visit my family!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r467509904-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>467509904</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Mediocre at best</t>
+  </si>
+  <si>
+    <t>I've stayed at quite a few hotels in IHG chain being a platinum rewards member and this one leaves something to be desired when it comes to being inviting. When I entered the hotel the two ladies behind the counter seemed more interested in continuing their conversation than in checking me in. Once the attention was turned my way, the woman who was registering me seemed like she had better things to do and failed to acknowledge my membership status.  It does seem like the hotel has its fair share of long term stayers but if it had not been last minute and a matter of convenience, I wouldn't have stayed here. Although the hotel appears clean and neat, it has an underlying musty smell that set my allergies off almost as soon as I walked in the door. I think next time that I will just spend a couple more dollars and stay across the freeway and receive a lot better service without the side of attitude.....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>CandlewoodSuitesLa, Webmaster at Candlewood Suites La Porte, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>I've stayed at quite a few hotels in IHG chain being a platinum rewards member and this one leaves something to be desired when it comes to being inviting. When I entered the hotel the two ladies behind the counter seemed more interested in continuing their conversation than in checking me in. Once the attention was turned my way, the woman who was registering me seemed like she had better things to do and failed to acknowledge my membership status.  It does seem like the hotel has its fair share of long term stayers but if it had not been last minute and a matter of convenience, I wouldn't have stayed here. Although the hotel appears clean and neat, it has an underlying musty smell that set my allergies off almost as soon as I walked in the door. I think next time that I will just spend a couple more dollars and stay across the freeway and receive a lot better service without the side of attitude.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r456969882-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>456969882</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>A Disappointing Candlewood</t>
+  </si>
+  <si>
+    <t>The room we were given had a very, very strong deodorant smell – maybe to cover up a cheating smoker.  The staff offered a different room, but it was our dinner time and we had already unpacked.  The temperature in the room was difficult to control.  It was either too cold or too hot.  I suspect the usual Candlewood energy-saving motion detection scheme was to blame.  Staff was only somewhat sympathetic, again offering us a different room when we reported the mold problem we discovered after 9 PM.  At that point we wanted only to catch some sleep before leaving this establishment FOR THE LAST TIME, so we again declined to schlep all our stuff around.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room we were given had a very, very strong deodorant smell – maybe to cover up a cheating smoker.  The staff offered a different room, but it was our dinner time and we had already unpacked.  The temperature in the room was difficult to control.  It was either too cold or too hot.  I suspect the usual Candlewood energy-saving motion detection scheme was to blame.  Staff was only somewhat sympathetic, again offering us a different room when we reported the mold problem we discovered after 9 PM.  At that point we wanted only to catch some sleep before leaving this establishment FOR THE LAST TIME, so we again declined to schlep all our stuff around.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r438414568-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -321,18 +414,57 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>CandlewoodSuitesLa, Webmaster at Candlewood Suites La Porte, responded to this reviewResponded April 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 20, 2017</t>
-  </si>
-  <si>
     <t>I stayed here 2 night in March due to my water heater getting fixed. I only stayed here because the rate was cheap being an employee at another hotel. I liked that I was able to get an early check in. That helped a lot. The room was ok the toilet worked when it wanted to and made noises all night. I noticed the employees like to hang out a lot rather then work. When I walked in the housekeepers when standing around the desk laughing and having a good time later I noticed the same front desk lady staying talking to guys laughing having a good time that's cool probably a slow day understandable. Easy money but what got me was when I was checking out nobody was at the desk when I walked out back I see the front desk and housekeepers all sitting out side smoking and drinking wine..really no wonder why the rooms don't get clean properly. This property needs to step those game up.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r337991628-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>337991628</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>we stayed here for about 6 weeks</t>
+  </si>
+  <si>
+    <t>The people are really nice and they do let pets stay. The rooms are ok are bathroom toliet run the whole time and the bed seaked. But it was nice over all. The have a dinner in the lobby every wednesday night free to the guests. If your planning on stay for awhile its an okay place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The people are really nice and they do let pets stay. The rooms are ok are bathroom toliet run the whole time and the bed seaked. But it was nice over all. The have a dinner in the lobby every wednesday night free to the guests. If your planning on stay for awhile its an okay place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r329436511-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>329436511</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>In the DARK</t>
+  </si>
+  <si>
+    <t>Checked in on Thanksgiving day. No one at the desk for half an hour. She then told me it didn't show up that I was a Priority Club Member.  Got up this morning to find there were no towels in my room then got a call from the front desk asking if I'd moved out of another room yesterday.  I don't think he believed me when I assured him I'd just checked in. Here on business. Have so much work to do before Monday. Have to take the time to go buy light bulbs because every light bulb in the room is about 20 watts. Not any more than a night light. Not a good experience at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites La Porte, responded to this reviewResponded December 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2015</t>
+  </si>
+  <si>
+    <t>Checked in on Thanksgiving day. No one at the desk for half an hour. She then told me it didn't show up that I was a Priority Club Member.  Got up this morning to find there were no towels in my room then got a call from the front desk asking if I'd moved out of another room yesterday.  I don't think he believed me when I assured him I'd just checked in. Here on business. Have so much work to do before Monday. Have to take the time to go buy light bulbs because every light bulb in the room is about 20 watts. Not any more than a night light. Not a good experience at all. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r278893183-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -406,6 +538,51 @@
   </si>
   <si>
     <t>My friend and I stayed at this facility prior to a cruise.  We were well pleased with both the staff and cleanliness.  The location was close to the port.  There was shuttle service to the port for a small fee.  The shuttle was on time and very convenient. We found restaurants  to be nearby within walking distance.  Over all a pleasant experience that enhanced our cruise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r250626450-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>250626450</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>I stay at hotels a lot, this candlewood suites beats extended stay hands down.</t>
+  </si>
+  <si>
+    <t>great wifi, wonderful service and clean rooms. A pool would be a welcome addition in texas heat. Bbq and patio tables, safe and convienient location. I cant say anything bad about the place. I stayed there for two weeks without a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewood77571, General Manager at Candlewood Suites La Porte, responded to this reviewResponded January 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2015</t>
+  </si>
+  <si>
+    <t>great wifi, wonderful service and clean rooms. A pool would be a welcome addition in texas heat. Bbq and patio tables, safe and convienient location. I cant say anything bad about the place. I stayed there for two weeks without a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r246444763-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>246444763</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay before a cruise</t>
+  </si>
+  <si>
+    <t>The hotel is in a quiet area not far from the cruise port. Several fast food places and a ‘Kroger’ supermarket are within walking distance. The suites are small but come with a fully equipped kitchen with fridge/freezer and dish washer. Food items can be bought in vending machines. As we only stayed one night we didn’t make use of them. The room had one queen size bed which felt a little narrow and the bathroom is fairly small too but it was very clean. Wi-Fi reception and speed was excellent in the room.We had a problem with the keyboards of the computers in the business center. The front desk staff was very friendly and helpful and tried to get the problem solved.We had intended to leave the car at the hotel but they are charging  $ 10 for parking and the shuttle will cost $ 8 per person one way. For 4 people it would have been the same price as parking at the port.For one night before a cruise the Candlewood is a good place to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The hotel is in a quiet area not far from the cruise port. Several fast food places and a ‘Kroger’ supermarket are within walking distance. The suites are small but come with a fully equipped kitchen with fridge/freezer and dish washer. Food items can be bought in vending machines. As we only stayed one night we didn’t make use of them. The room had one queen size bed which felt a little narrow and the bathroom is fairly small too but it was very clean. Wi-Fi reception and speed was excellent in the room.We had a problem with the keyboards of the computers in the business center. The front desk staff was very friendly and helpful and tried to get the problem solved.We had intended to leave the car at the hotel but they are charging  $ 10 for parking and the shuttle will cost $ 8 per person one way. For 4 people it would have been the same price as parking at the port.For one night before a cruise the Candlewood is a good place to stay at.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r239989723-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
@@ -477,6 +654,48 @@
     <t>I stayed at the Candlewood in La Porte for a family reunion. It was clean, and the suites were a good size for my son and I.  But for the price (which was no different than similar hotels in the area that other family members stayed it) it was lacking in amenities. No breakfast, no pool. Housekeeping on request.I assume that the hotel's primary customers are business people who are in and out and plan to cook in the kitchenette, and it's a fine hotel for that since La Porte doesn't have anything in the way of attractions or fine dining.  So I would say if your goal is to stay here for the price, and then make trips into Houston (only 20 minutes away), and cook your own meals, this is great. Not really so good for families since there's nothing for the kids to do.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r223727179-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>223727179</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Clean rooms and friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed here for a night while we were waiting to take a cruise.  The place was clean and the staff was friendly.  Nothing to complain about there.  I only have a couple of pieces of otherwise helpful feedback.1)  Although there are some restaurants within walking distance if you don't have a car don't expect anything but basically chain restaurants and not much to do.  We took a cab in so we couldn't drive anywhere.  Not much to do near the hotel.  Cab service to the hotel was slow and expensive to take us anywhere so we just hung out in the room.2)  The shuttle service they recommend to the port is questionable.  The number you call seems to be someones personal number (they don't answer with a business name) and they just take your information and then call someone else who then calls you back.  We didn't hear back until about 10PM and we needed travel the next morning so we just took a cab.There is plenty of "PARKIG".  :)  Parking is misspelled in their parking lot.  :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a night while we were waiting to take a cruise.  The place was clean and the staff was friendly.  Nothing to complain about there.  I only have a couple of pieces of otherwise helpful feedback.1)  Although there are some restaurants within walking distance if you don't have a car don't expect anything but basically chain restaurants and not much to do.  We took a cab in so we couldn't drive anywhere.  Not much to do near the hotel.  Cab service to the hotel was slow and expensive to take us anywhere so we just hung out in the room.2)  The shuttle service they recommend to the port is questionable.  The number you call seems to be someones personal number (they don't answer with a business name) and they just take your information and then call someone else who then calls you back.  We didn't hear back until about 10PM and we needed travel the next morning so we just took a cab.There is plenty of "PARKIG".  :)  Parking is misspelled in their parking lot.  :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r221363585-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>221363585</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>It's fine - didn't find anything to complain about</t>
+  </si>
+  <si>
+    <t>Hotel is average, location convenient to stores/restaurants. Check-in was quick and friendly. Room was good - everything was clean (maybe a little too much air freshener of some kind; kinda hit me when I walked thru the door, but got used to it pretty quick). TV and internet both worked well with no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites La Porte, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Hotel is average, location convenient to stores/restaurants. Check-in was quick and friendly. Room was good - everything was clean (maybe a little too much air freshener of some kind; kinda hit me when I walked thru the door, but got used to it pretty quick). TV and internet both worked well with no problems.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r204170139-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -552,6 +771,39 @@
     <t>I rented a room for three nights for my daughter to use while she was taking the 3 day State Bar Exam in nearby Pasadena, Texas.  The nightly rate of $97.75 seemed reasonable and the location was close to where the Bar Exams were being administered.  On the last day, my daughter explained her situation and asked the front desk if she could leave her belongings in the room for the day while she completed another grueling day of tests - this was approved.  When she returned, the afternoon crew told her they were charging her for another day (actually charging her dad!).I called the property and spoke with "Donald" (apparently no last name) who explained that they couldn't clean the room with her belongings in the room so they added the extra day.  Thanks for the help and consideration Candlewood - it's not like you were totally booked for the night in question.  Great customer service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r196161032-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196161032</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Good Place To Leave Your Car</t>
+  </si>
+  <si>
+    <t>We went on a Princess Cruise out of Houston. We stayed at Candelwood the night before the cruise, they made arrangements for us to be taken to the cruise terminal, and let us leave our car there instead of spending $80 to park it at the terminal. When we got back, they arranged to pick us up and return us to the hotel. The rooms have a small kitchen area that you can actually cook a meal if you want to.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r195443405-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>195443405</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed!</t>
+  </si>
+  <si>
+    <t>We came in on Friday to stay 1 night before our cruise.  We wanted to get something close enough to the Port for our cruise, that we could take a shuttle, so we tried the Candlewood for the first time.  We did have to take a taxi from Hobby Airport (for the 2 of us it was , but that was fine.  With no breakfast included, I made sure and check to see if there were options around for food, which there were.It was Valentine's Day when we arrived, so we asked the front desk about local restaurants, preferably within walking distance.  He recommended ANTONIO'S!  We thought for sure we wouldn't get in being Valentine's Day and all, but we only had to wait 15-20 min.After we enjoyed a nice dinner, we walked next door to KROGER's grocery store and bought some dessert and enough stuff for breakfast in the morning.  That worked out great, being that our room had a full fridge.  We took advantage of the fitness center, which was bigger than many we've stayed in.  We were told to meet in the lobby at noon for the shuttle to the Bayport Cruise Terminal.  They use a 3rd party, but it was just $8pp.  She did a great job and the best thing is that it's only 10 minutes away from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came in on Friday to stay 1 night before our cruise.  We wanted to get something close enough to the Port for our cruise, that we could take a shuttle, so we tried the Candlewood for the first time.  We did have to take a taxi from Hobby Airport (for the 2 of us it was , but that was fine.  With no breakfast included, I made sure and check to see if there were options around for food, which there were.It was Valentine's Day when we arrived, so we asked the front desk about local restaurants, preferably within walking distance.  He recommended ANTONIO'S!  We thought for sure we wouldn't get in being Valentine's Day and all, but we only had to wait 15-20 min.After we enjoyed a nice dinner, we walked next door to KROGER's grocery store and bought some dessert and enough stuff for breakfast in the morning.  That worked out great, being that our room had a full fridge.  We took advantage of the fitness center, which was bigger than many we've stayed in.  We were told to meet in the lobby at noon for the shuttle to the Bayport Cruise Terminal.  They use a 3rd party, but it was just $8pp.  She did a great job and the best thing is that it's only 10 minutes away from the hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r190225464-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -609,6 +861,51 @@
     <t>We didn't arrive at the hotel until after midnight, but the desk clerk was prompt and even arranged for an extra room we hadn't originally booked for my mom. The shuttle service to the port was on time dropping us off, and fast picking us up too. Free parking offset the cost of the hotel so we basically stayed for free. The hotel was better equipped than many condos we've stayed in. Overall I think this is an excellent place for a short stay before or after a cruise. There's not much around the immediate vicinity. The kitchen was well equipped with a full size refrigerator, dishwasher, stove top, etc. For families this would be a nice way to save on meals. The hotel was clean and the staff very friendly. Skip the breakfast package and eat at Denny's across the street which has much better food.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r181068893-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>181068893</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Not the service I recieved when I arrived!!!</t>
+  </si>
+  <si>
+    <t>When I booked my room I was part of a wedding party so I got a discounted group rate. The first night I was there I used my points because it was covered under my priority club rewards points. I was there for a wedding so the second night I was under the group rate with the wedding. When I originally booked my night I was told that I would have a free breakfast! When I checked out it was to my surprise I was charged for breakfast. I wish I would have known before I had the breakfast at Waffle House that it wasn't included. The lady at the front desk failed to mention that the breakfast was not included. So basically the rude lady at the front desk gave me breakfast tickets to go to Waffle House that morning and then I came back to the hotel and checked out and then found out that I was charged for the breakfast which costed more than what I would have paid at the Waffle House if I had paid for it myself. The lady at the front desk was not informative at all and acted disgusted that I was even there. I will not stay there ever again!!! I AM NOT HAPPY!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Candlewood77571, Manager at Candlewood Suites La Porte, responded to this reviewResponded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2013</t>
+  </si>
+  <si>
+    <t>When I booked my room I was part of a wedding party so I got a discounted group rate. The first night I was there I used my points because it was covered under my priority club rewards points. I was there for a wedding so the second night I was under the group rate with the wedding. When I originally booked my night I was told that I would have a free breakfast! When I checked out it was to my surprise I was charged for breakfast. I wish I would have known before I had the breakfast at Waffle House that it wasn't included. The lady at the front desk failed to mention that the breakfast was not included. So basically the rude lady at the front desk gave me breakfast tickets to go to Waffle House that morning and then I came back to the hotel and checked out and then found out that I was charged for the breakfast which costed more than what I would have paid at the Waffle House if I had paid for it myself. The lady at the front desk was not informative at all and acted disgusted that I was even there. I will not stay there ever again!!! I AM NOT HAPPY!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r177706844-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>177706844</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was doing a quick trip to the drag races in Baytown and this hotel was suggested. Was very clean and staff did a good job at front desk. The room would be great for business trip with the small kitchen area and counter top. Race track was about twenty minutes away but well worth the time for the reasonable price. I will stay here again. </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r176780489-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -624,9 +921,6 @@
     <t>I have stayed at a few of the Candlewood Suites. Everyone I have stayed at has been clean, excellent staff and comfortable.  The thing about this one is its surrounding stores; great for a business travel.  Krogers supermarket is across the street.  With the Suites having the kitchen, you can cook what you want. In addition, beer and wine.  Starbucks is located inside. There is also a BK and Subway around the corner. A few Mexican restaurants, bars, and to the left you can find a Valero gas station. **** BONUS: next to (attached) to the gas station is "Mesquite Grill &amp; Taco Factory". Only open 5am-1pm, the have the absolute must get breakfast burrito menu.  With a coffee is around $4.  Alway fresh, made to order, and stuffed. MoreShow less</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
     <t>I have stayed at a few of the Candlewood Suites. Everyone I have stayed at has been clean, excellent staff and comfortable.  The thing about this one is its surrounding stores; great for a business travel.  Krogers supermarket is across the street.  With the Suites having the kitchen, you can cook what you want. In addition, beer and wine.  Starbucks is located inside. There is also a BK and Subway around the corner. A few Mexican restaurants, bars, and to the left you can find a Valero gas station. **** BONUS: next to (attached) to the gas station is "Mesquite Grill &amp; Taco Factory". Only open 5am-1pm, the have the absolute must get breakfast burrito menu.  With a coffee is around $4.  Alway fresh, made to order, and stuffed. More</t>
   </si>
   <si>
@@ -669,6 +963,48 @@
     <t>We wanted something close to Galveston, but far enough away to save some money. When we go on trips we like to spend the money on fun things, not on our sleeping quarters. After all, how often are you in your hotel? We love the location of this hotel, it is close to everything you could ever want to do. Lots of fun stuff to do and see with-in an hours drive of the hotel. The staff was really nice and the bed was comfy! We stayed on the top floor and had a smoke free room, but the hall way had a very strong smoke smell. Thats the only negative comment I have about the hotel. Over all, very nice place for the price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r163965706-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>163965706</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay kid friendly they love my kids</t>
+  </si>
+  <si>
+    <t>I was here for  three weeks relocating and the staff loved my kids giving them cookies and playing bean toss with them at  the guest  reception was great they really made us feel at home. thanks and the wade pool and sylvan beach new sand area for the kids was great thanks again .</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r158986081-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>158986081</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>A good place to stay.</t>
+  </si>
+  <si>
+    <t>Stayed for two nights while in town for a funeral. Check in was quick and easy. Room was clean with pleanty of space. The shop gave me a place to grab a few things to keep in the room. I didn't use the laundry but it was bright, clean and FREE. Was able to print out my boarding pass in the business center. MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewood77571, General Manager at Candlewood Suites La Porte, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Stayed for two nights while in town for a funeral. Check in was quick and easy. Room was clean with pleanty of space. The shop gave me a place to grab a few things to keep in the room. I didn't use the laundry but it was bright, clean and FREE. Was able to print out my boarding pass in the business center. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r156640730-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -732,6 +1068,45 @@
     <t>The door was tilting a bit, the room color looked dirty, the towels were yellow colored instead of white, bed made noises when you move around, elevator extremely slow, some other guests were rather noisy.  Still, the staff were very friendly and for $65/night I've stayed at worse places.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r144339950-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>144339950</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>After having a bad experience on my Anniversary, we ended up coming here.  We looked at it before the other place but thought we would have been happier elsewhere! Boy were we wrong!! This hotel is amazing! Great staff, rates and I would love to come here again!!</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r143181363-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>143181363</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Great value; great stay!</t>
+  </si>
+  <si>
+    <t>I couldn't have found a better place to stay.  My five year old and I thoroughly enjoyed our stay at Candlewood La Porte.  Our room had a microwave, full size fridge with freezer, a mini-range, toaster, and dishwasher.  The room was clean and very spacious.  It also had a DVD/CD player which is a huge advantage.  I bring a portable DVD player that I usually have to plug into the TV so we can watch movies, but it was very nice just being able to pop a disc in a DVD player already connected.  There wasn't a breakfast offered in the morning, but there was a min-grocery store in the hotel.  There's also a waffle house, shipley's donuts, and mcdonalds all within a very short driving distance.  Also nearby is a Kroger.  If we were staying more than one night, I definitely would have purchased some groceries and possibly even do some cooking.  No need for us to look for another hotel to visit in La Porte.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I couldn't have found a better place to stay.  My five year old and I thoroughly enjoyed our stay at Candlewood La Porte.  Our room had a microwave, full size fridge with freezer, a mini-range, toaster, and dishwasher.  The room was clean and very spacious.  It also had a DVD/CD player which is a huge advantage.  I bring a portable DVD player that I usually have to plug into the TV so we can watch movies, but it was very nice just being able to pop a disc in a DVD player already connected.  There wasn't a breakfast offered in the morning, but there was a min-grocery store in the hotel.  There's also a waffle house, shipley's donuts, and mcdonalds all within a very short driving distance.  Also nearby is a Kroger.  If we were staying more than one night, I definitely would have purchased some groceries and possibly even do some cooking.  No need for us to look for another hotel to visit in La Porte.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r136743367-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -784,6 +1159,45 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r59822164-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>59822164</t>
+  </si>
+  <si>
+    <t>03/29/2010</t>
+  </si>
+  <si>
+    <t>Hands down the best service and comfort in LaPorte Texas</t>
+  </si>
+  <si>
+    <t>I travel 80% of the year and I know hotels. Candlewood suites Laporte is hands down the best service and comfort available in  Laporte Texas . I had switched hotels twice before discoveing them. The staff is friendly, ALL OF THEM, All of the time. They have proven to be willing to help in anyway they can with a cheerful attitude. The weekly dinner they serve to all of the guests is a way to get to know the other, creating a feeling of comfort and safety.I highly reccomend to each Trip Advisor member to show thier support of quality customer based behavior, reward Candlewood Suites with your business you will not be dissappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>I travel 80% of the year and I know hotels. Candlewood suites Laporte is hands down the best service and comfort available in  Laporte Texas . I had switched hotels twice before discoveing them. The staff is friendly, ALL OF THEM, All of the time. They have proven to be willing to help in anyway they can with a cheerful attitude. The weekly dinner they serve to all of the guests is a way to get to know the other, creating a feeling of comfort and safety.I highly reccomend to each Trip Advisor member to show thier support of quality customer based behavior, reward Candlewood Suites with your business you will not be dissappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1212487-r31511584-Candlewood_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>31511584</t>
+  </si>
+  <si>
+    <t>06/03/2009</t>
+  </si>
+  <si>
+    <t>If you travel in the La Porte area, STAY HERE</t>
+  </si>
+  <si>
+    <t>My family and I traveled to La Porte to say goodbye to a beloved family member, and Candlewood made the whole stay less stressful. They realized that our family needed some time to gather after the funeral, and made the meeting room available to us. It made such a difference! Thank you.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1329,20 +1743,20 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1358,7 +1772,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1367,47 +1781,47 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1423,7 +1837,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1432,47 +1846,43 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1488,7 +1898,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1497,43 +1907,47 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1549,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1558,43 +1972,47 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +2028,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1619,25 +2037,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>100</v>
-      </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1649,13 +2067,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1671,7 +2089,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1680,47 +2098,39 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +2146,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1745,49 +2155,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1803,7 +2207,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1812,49 +2216,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
@@ -1870,7 +2268,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1879,49 +2277,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>135</v>
-      </c>
       <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -1937,7 +2329,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1946,49 +2338,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
         <v>137</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>138</v>
       </c>
-      <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>141</v>
-      </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -2004,7 +2394,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2013,45 +2403,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -2067,7 +2455,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2076,43 +2464,47 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
         <v>152</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>153</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>154</v>
       </c>
-      <c r="L14" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>156</v>
-      </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
         <v>157</v>
-      </c>
-      <c r="X14" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -2128,7 +2520,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2137,50 +2529,46 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
         <v>161</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>162</v>
-      </c>
-      <c r="K15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
         <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
         <v>166</v>
@@ -2220,41 +2608,37 @@
         <v>171</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
         <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>97</v>
+      </c>
+      <c r="X16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" t="s">
         <v>173</v>
-      </c>
-      <c r="X16" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -2270,7 +2654,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2279,27 +2663,27 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
         <v>177</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>178</v>
       </c>
-      <c r="K17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
@@ -2314,10 +2698,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -2333,7 +2721,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2342,41 +2730,35 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2384,7 +2766,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -2400,7 +2782,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2409,28 +2791,28 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
         <v>5</v>
@@ -2443,7 +2825,7 @@
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2451,7 +2833,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
@@ -2488,27 +2870,37 @@
         <v>199</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
         <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -2524,7 +2916,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2533,41 +2925,37 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
       </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2575,7 +2963,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -2591,7 +2979,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2600,38 +2988,34 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
         <v>3</v>
       </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>4</v>
@@ -2642,7 +3026,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
@@ -2658,7 +3042,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2667,49 +3051,49 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
@@ -2725,7 +3109,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2734,49 +3118,43 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -2792,7 +3170,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2801,53 +3179,53 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
         <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -2863,7 +3241,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2872,49 +3250,53 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
@@ -2930,7 +3312,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2939,31 +3321,31 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>245</v>
       </c>
-      <c r="L27" t="s">
-        <v>246</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="O27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" t="n">
         <v>4</v>
       </c>
-      <c r="N27" t="s">
-        <v>247</v>
-      </c>
-      <c r="O27" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>5</v>
@@ -2981,7 +3363,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
@@ -2997,7 +3379,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3006,41 +3388,41 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3048,7 +3430,1331 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>284</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>318</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>338</v>
+      </c>
+      <c r="X40" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>338</v>
+      </c>
+      <c r="X41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>351</v>
+      </c>
+      <c r="L42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>353</v>
+      </c>
+      <c r="O42" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>366</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O45" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58412</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
